--- a/DMS/Templates/Report_Store_Unchecked.xlsx
+++ b/DMS/Templates/Report_Store_Unchecked.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\OneDrive\My com\Rang Dong _Product\bc\Template xuất excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F88DAA1-52F0-4979-87B1-99DEF64CB079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>{Đơn vị quản lý}</t>
-  </si>
-  <si>
     <t xml:space="preserve">BÁO CÁO CỬA HÀNG KHÔNG VIẾNG THĂM </t>
   </si>
   <si>
@@ -68,26 +66,53 @@
     <t>Từ ngày</t>
   </si>
   <si>
-    <t>{ngày bắt đầu}</t>
-  </si>
-  <si>
     <t>Đến ngày</t>
   </si>
   <si>
-    <t>{ngày kết thúc}</t>
-  </si>
-  <si>
-    <t>Đơn vị quản lý 1</t>
-  </si>
-  <si>
-    <t>Đơn vị quản lý 2</t>
+    <t>{{Start}}</t>
+  </si>
+  <si>
+    <t>{{End}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.OrganizationName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.STT}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.DisplayName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.Username}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.Date}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.ERouteCode}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.StoreCode}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.StoreName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.StoreTypeName}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.StorePhone}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.StoreAddress}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +148,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -202,17 +234,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -223,6 +250,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,352 +550,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="4" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+    <row r="8" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A8:J8"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Store_Unchecked.xlsx
+++ b/DMS/Templates/Report_Store_Unchecked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F88DAA1-52F0-4979-87B1-99DEF64CB079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D97C28-EF7D-4C96-A9AF-6E1BD3BC6230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>{{ReportStoreUncheckeds.OrganizationName}}</t>
   </si>
   <si>
-    <t>{{ReportStoreUncheckeds.SaleEmployees.STT}}</t>
-  </si>
-  <si>
     <t>{{ReportStoreUncheckeds.SaleEmployees.DisplayName}}</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.StoreAddress}}</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.STT}}</t>
   </si>
 </sst>
 </file>
@@ -170,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -230,47 +230,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -573,42 +584,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="4" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -619,13 +630,13 @@
       <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="3"/>
@@ -666,71 +677,71 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15" t="s">
+      <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="I9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="J9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="K9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="L9" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:L4"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:R8"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Store_Unchecked.xlsx
+++ b/DMS/Templates/Report_Store_Unchecked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D97C28-EF7D-4C96-A9AF-6E1BD3BC6230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B23730-D609-4AF0-96EF-80690275808D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,24 +39,12 @@
     <t>Ngày</t>
   </si>
   <si>
-    <t>Mã cửa hàng</t>
-  </si>
-  <si>
-    <t>Tên cửa hàng</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t xml:space="preserve">BÁO CÁO CỬA HÀNG KHÔNG VIẾNG THĂM </t>
-  </si>
-  <si>
     <t>Tuyến</t>
   </si>
   <si>
-    <t>Loại cửa hàng</t>
-  </si>
-  <si>
     <t>Số điện thoại</t>
   </si>
   <si>
@@ -106,6 +94,18 @@
   </si>
   <si>
     <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.STT}}</t>
+  </si>
+  <si>
+    <t>Mã đại lý</t>
+  </si>
+  <si>
+    <t>Tên đại lý</t>
+  </si>
+  <si>
+    <t>Loại đại lý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BÁO CÁO ĐẠI LÝ KHÔNG VIẾNG THĂM </t>
   </si>
 </sst>
 </file>
@@ -257,30 +257,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +565,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -584,42 +584,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="A4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -628,16 +628,16 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -646,51 +646,51 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="A8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="7"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -700,36 +700,36 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Report_Store_Unchecked.xlsx
+++ b/DMS/Templates/Report_Store_Unchecked.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B23730-D609-4AF0-96EF-80690275808D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>STT</t>
   </si>
@@ -42,9 +41,6 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Tuyến</t>
-  </si>
-  <si>
     <t>Số điện thoại</t>
   </si>
   <si>
@@ -73,9 +69,6 @@
   </si>
   <si>
     <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.Date}}</t>
-  </si>
-  <si>
-    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.ERouteCode}}</t>
   </si>
   <si>
     <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.StoreCode}}</t>
@@ -111,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,31 +554,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -593,9 +585,8 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -603,11 +594,10 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
     </row>
-    <row r="4" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -619,30 +609,27 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -658,27 +645,24 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -689,59 +673,55 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="7"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Store_Unchecked.xlsx
+++ b/DMS/Templates/Report_Store_Unchecked.xlsx
@@ -68,9 +68,6 @@
     <t>{{ReportStoreUncheckeds.SaleEmployees.Username}}</t>
   </si>
   <si>
-    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.Date}}</t>
-  </si>
-  <si>
     <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.StoreCode}}</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve">BÁO CÁO ĐẠI LÝ KHÔNG VIẾNG THĂM </t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.DateDisplay}}</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:K8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
     </row>
     <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -645,13 +645,13 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>13</v>
@@ -694,22 +694,22 @@
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Report_Store_Unchecked.xlsx
+++ b/DMS/Templates/Report_Store_Unchecked.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662F8EDC-03BB-463A-ADE8-9DB279D68DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,44 +237,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,161 +572,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="34.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="42.88671875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
+    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:17" s="18" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="17" t="s">
         <v>18</v>
       </c>
     </row>

--- a/DMS/Templates/Report_Store_Unchecked.xlsx
+++ b/DMS/Templates/Report_Store_Unchecked.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662F8EDC-03BB-463A-ADE8-9DB279D68DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06100453-BDEB-4328-A461-1E3F5181AF7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.DateDisplay}}</t>
+  </si>
+  <si>
+    <t>Trạng thái đại lý</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.StoreStatusName}}</t>
   </si>
 </sst>
 </file>
@@ -239,59 +245,59 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,162 +579,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="42.88671875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="29.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="L5" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:17" s="18" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:18" s="9" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="K9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="L9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -740,8 +754,8 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Store_Unchecked.xlsx
+++ b/DMS/Templates/Report_Store_Unchecked.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06100453-BDEB-4328-A461-1E3F5181AF7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FDABDB-AF04-42CA-9A67-F6E42FB0D05B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -87,9 +87,6 @@
     <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.STT}}</t>
   </si>
   <si>
-    <t>Mã đại lý</t>
-  </si>
-  <si>
     <t>Tên đại lý</t>
   </si>
   <si>
@@ -106,6 +103,15 @@
   </si>
   <si>
     <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.StoreStatusName}}</t>
+  </si>
+  <si>
+    <t>Mã đại lý (tự sinh)</t>
+  </si>
+  <si>
+    <t>Mã đại lý (tự nhập)</t>
+  </si>
+  <si>
+    <t>{{ReportStoreUncheckeds.SaleEmployees.Stores.StoreCodeDraft}}</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -275,6 +281,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -298,6 +310,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,156 +608,166 @@
     <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="29.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="42.85546875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="29.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="10"/>
     </row>
-    <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+    <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:18" s="9" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="J9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -754,8 +779,8 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
